--- a/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1213"/>
+  <dimension ref="A1:B1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25694-w120343.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31972-w37685.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31972-w37685.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25694-w120343.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23640-w17508.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15232-w96402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15232-w96402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23640-w17508.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45614-w610144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-74557-w610215.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-74557-w610215.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45614-w610144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31977-w37938.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25700-w3406.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9442-w610116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13645-w37248.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13645-w37248.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13663-w7568.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13663-w7568.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31977-w37938.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25700-w3406.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13315-w3396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13315-w3396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9442-w610116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65890-w610187.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65437-w610186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86779-w610199.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86870-w610217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86870-w610217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86779-w610199.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65437-w610186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65890-w610187.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25731-w37958.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13644-w37238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31378-w4571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13636-w26172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13644-w37238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15266-w37542.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31351-w37228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25731-w37958.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23678-w71202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31378-w4571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31373-w37868.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23644-w36075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19419-w4801.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13334-w37848.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15266-w37542.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23678-w71202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13334-w37848.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31373-w37868.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15257-w34152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19419-w4801.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13636-w26172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15257-w34152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23644-w36075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31351-w37228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9441-w610115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29872-w10582.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29872-w10582.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9441-w610115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86806-w610200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86805-w610198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86805-w610198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86806-w610200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79420-w610170.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89308-w610222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86752-w610192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86781-w610223.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89308-w610222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86752-w610192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86781-w610223.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79420-w610170.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46288-w610145.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65685-w610184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-125153-w610190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46288-w610145.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86763-w610236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65791-w610185.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65407-w610178.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86807-w610203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65685-w610184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86763-w610236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65791-w610185.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65407-w610178.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86761-w610220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65428-w610179.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86807-w610203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86761-w610220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65428-w610179.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-125153-w610190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25705-w36105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23680-w7563.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6798-w14205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15289-w7564.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9414-w37018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34003-w36042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34003-w36042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9414-w37018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31338-w10028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6798-w14205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13313-w28805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25705-w36105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15289-w7564.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13313-w28805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23680-w7563.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15285-w73608.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15285-w73608.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31338-w10028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15282-w610128.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15226-w610134.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15226-w610134.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46121-w610147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31387-w610135.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15282-w610128.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46121-w610147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31387-w610135.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13341-w37968.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15211-w37695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25713-w37405.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13341-w37968.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15211-w37695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25713-w37405.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29913-w610136.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17359-w37158.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17359-w37158.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29913-w610136.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31984-w4804.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46318-w610152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46318-w610152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48703-w610159.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23671-w4803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25743-w99284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25743-w99284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23671-w4803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48703-w610159.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31984-w4804.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13337-w37858.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126855-w610245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31359-w37535.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15271-w37782.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15271-w37782.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13337-w37858.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15272-w37785.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31359-w37535.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19397-w134494.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15272-w37785.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126855-w610245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19397-w134494.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17387-w610120.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13322-w37168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13322-w37168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17387-w610120.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17395-w93337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29910-w610121.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29910-w610121.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31365-w37645.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31365-w37645.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19425-w610108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19425-w610108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17395-w93337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13657-w37978.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45460-w610151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45460-w610151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13657-w37978.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13328-w37582.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6819-w37602.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23653-w37575.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23658-w37752.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23658-w37752.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31362-w37625.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6819-w37602.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13649-w37592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31362-w37625.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23653-w37575.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13649-w37592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13328-w37582.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9415-w37052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29911-w610127.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29911-w610127.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25707-w37042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31346-w37035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9415-w37052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25707-w37042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31346-w37035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86778-w610196.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86753-w610197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86753-w610197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65382-w610180.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86298-w610227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65711-w610181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65382-w610180.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86298-w610227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65711-w610181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86778-w610196.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31986-w49235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13647-w37548.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34023-w49232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31958-w32072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9408-w13368.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15276-w37875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13647-w37548.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15186-w16535.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34025-w73622.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34023-w49232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25702-w34475.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9408-w13368.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31958-w32072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31986-w49235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15186-w16535.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25702-w34475.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15276-w37875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34025-w73622.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65418-w610169.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90234-w610238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90234-w610238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50672-w610157.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50672-w610157.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65418-w610169.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86780-w610214.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86877-w610237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86877-w610237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86780-w610214.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50669-w610162.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79926-w610204.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79926-w610204.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79905-w610205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79905-w610205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50669-w610162.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13351-w610138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25742-w610141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15284-w610139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29912-w610133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25742-w610141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13351-w610138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29912-w610133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15284-w610139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29888-w37152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17388-w610132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6814-w37382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9430-w37982.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17388-w610132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31974-w37698.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9430-w37982.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29888-w37152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31974-w37698.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6836-w610110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15228-w80147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6814-w37382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6836-w610110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15228-w80147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6838-w695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90763-w610240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90763-w610240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6838-w695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25735-w37985.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15200-w37375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15213-w37778.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25735-w37985.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15200-w37375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15213-w37778.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15203-w37418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13342-w37995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13342-w37995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15203-w37418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31374-w37942.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31965-w37315.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31965-w37315.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29891-w3731.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13639-w36028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15227-w7379.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15227-w7379.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25708-w37222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9444-w7536.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13639-w36028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29891-w3731.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31964-w37255.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13658-w4511.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12070-w3730.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19418-w4358.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9418-w37182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25708-w37222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13658-w4511.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31964-w37255.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19418-w4358.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12070-w3730.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9444-w7536.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9418-w37182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31374-w37942.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86808-w610218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73176-w610188.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65400-w610177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65721-w610182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73176-w610188.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65691-w610183.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65721-w610182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65400-w610177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65691-w610183.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86808-w610218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19407-w37252.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17389-w610143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21515-w34178.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6831-w45872.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25729-w37812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23661-w37802.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29879-w14522.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19407-w37252.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23665-w37865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23681-w78745.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6831-w45872.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34010-w37245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23681-w78745.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12085-w610142.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17389-w610143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21515-w34178.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12085-w610142.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29879-w14522.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6812-w37352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23665-w37865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34010-w37245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25729-w37812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23661-w37802.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6812-w37352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9427-w37845.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29915-w78978.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29915-w78978.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9427-w37845.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15283-w610131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48713-w610161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48713-w610161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15283-w610131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13350-w610130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31980-w37975.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80065-w610232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31985-w4875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31980-w37975.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80065-w610232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31985-w4875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13350-w610130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90671-w610207.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90692-w610206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90692-w610206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90671-w610207.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31386-w610118.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65886-w610189.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45974-w610149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31386-w610118.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65886-w610189.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45974-w610149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25722-w37648.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34005-w37092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34005-w37092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46060-w610155.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12077-w45995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31356-w37322.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29898-w37668.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15269-w37658.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9446-w96361.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12077-w45995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17379-w37852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31992-w610113.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13653-w37862.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31355-w37312.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31992-w610113.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9446-w96361.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31356-w37322.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13653-w37862.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15269-w37658.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29898-w37668.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31355-w37312.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17379-w37852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46060-w610155.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25722-w37648.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6825-w37805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80089-w610194.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80089-w610194.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6825-w37805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13308-w13388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25733-w37965.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15185-w116229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6826-w37955.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25733-w37965.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15185-w116229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13340-w37962.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9433-w40952.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12075-w37708.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13340-w37962.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9433-w40952.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13308-w13388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6826-w37955.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12075-w37708.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9424-w37638.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80064-w610231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80090-w610213.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9424-w37638.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80064-w610231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80090-w610213.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19422-w610004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12068-w37257.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12068-w37257.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19422-w610004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23642-w34151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31382-w610027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25710-w37307.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6804-w36074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13670-w96878.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13345-w46251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23679-w71211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13643-w37227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13643-w37227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25710-w37307.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31382-w610027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23642-w34151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31369-w37694.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29890-w37247.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13345-w46251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31369-w37694.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6804-w36074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34015-w37554.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34015-w37554.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29908-w610032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29908-w610032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23679-w71211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29890-w37247.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13670-w96878.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15259-w37051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12088-w73604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33998-w16534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31392-w9697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31392-w9697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15259-w37051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12088-w73604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33998-w16534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19405-w37101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23676-w610016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31342-w14494.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13352-w71217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17385-w610064.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15261-w37151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13661-w610065.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15254-w32071.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31970-w37547.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25701-w34474.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25701-w34474.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17385-w610064.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15261-w37151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13661-w610065.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15201-w37381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19420-w50014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15252-w28661.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25737-w45961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13638-w35074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31970-w37547.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19420-w50014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15222-w610028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13352-w71217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31393-w9698.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15222-w610028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15201-w37381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25737-w45961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15252-w28661.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31393-w9698.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19405-w37101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15254-w32071.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31342-w14494.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23676-w610016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13638-w35074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19423-w610010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6802-w18291.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23668-w37967.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6810-w37347.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6810-w37347.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23668-w37967.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6802-w18291.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12082-w610056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12082-w610056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19423-w610010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13348-w610040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25727-w37784.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25727-w37784.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19412-w37531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19412-w37531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15293-w96472.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15293-w96472.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13347-w610039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13347-w610039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13348-w610040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13646-w37391.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12083-w610058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12083-w610058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13646-w37391.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31990-w610023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15196-w37034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31993-w73621.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19417-w40417.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19417-w40417.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15229-w80148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15229-w80148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33999-w19091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13332-w37687.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15221-w49331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17374-w37697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31990-w610023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33999-w19091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17374-w37697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15221-w49331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31993-w73621.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15196-w37034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13332-w37687.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21533-w59241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9431-w37994.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9431-w37994.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21533-w59241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31367-w37677.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29901-w37787.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29901-w37787.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31367-w37677.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19427-w9345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34028-w9344.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34028-w9344.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19427-w9345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25704-w36027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13357-w9696.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15198-w37314.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25704-w36027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13357-w9696.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21542-w9695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21524-w37354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15198-w37314.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21542-w9695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21524-w37354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25730-w37841.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23667-w37877.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23667-w37877.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25730-w37841.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15217-w37954.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17393-w78744.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31352-w37231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31971-w37597.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25711-w37321.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21529-w37941.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23662-w37811.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13331-w37647.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34001-w34177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23662-w37811.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13331-w37647.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21522-w37311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31971-w37597.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31352-w37231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17393-w78744.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17386-w610066.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21522-w37311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25711-w37321.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21529-w37941.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15217-w37954.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19410-w37334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34001-w34177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17386-w610066.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19410-w37334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13652-w37861.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25736-w40824.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19424-w610014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17383-w610009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9437-w610002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13343-w40951.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12079-w610003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9439-w610020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29881-w19111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31381-w610021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31987-w610008.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13628-w100674.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17383-w610009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31987-w610008.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25736-w40824.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19424-w610014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13343-w40951.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6834-w51087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9439-w610020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13339-w37864.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13335-w37851.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12079-w610003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31381-w610021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21518-w37091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21518-w37091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29881-w19111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13628-w100674.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13652-w37861.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13339-w37864.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13335-w37851.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6834-w51087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9437-w610002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6797-w13387.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13664-w78734.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31364-w37637.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13327-w37577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13664-w78734.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15274-w37854.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13327-w37577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21527-w37707.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21527-w37707.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6827-w37961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6827-w37961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6797-w13387.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15274-w37854.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31364-w37637.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29885-w36011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23641-w32554.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23641-w32554.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29885-w36011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25738-w610018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21512-w19237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12065-w37047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25738-w610018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29877-w14497.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25726-w37761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25726-w37761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9417-w37157.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21512-w19237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12065-w37047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9417-w37157.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29877-w14497.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15195-w37017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31361-w37594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13641-w36041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9435-w49681.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15223-w610048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34018-w37741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15189-w28804.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15288-w73627.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13316-w34334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12067-w37147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15260-w37117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15189-w28804.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31361-w37594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15223-w610048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34027-w78051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6813-w37377.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29907-w610031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21539-w9004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15288-w73627.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23682-w9005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6813-w37377.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34027-w78051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21539-w9004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29907-w610031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9435-w49681.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13316-w34334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15286-w73617.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15260-w37117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23682-w9005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13641-w36041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12067-w37147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15195-w37017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34018-w37741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15286-w73617.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6840-w96718.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23673-w55891.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23673-w55891.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6840-w96718.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12058-w131480.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6829-w37997.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31989-w610019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31991-w610060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21526-w37644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6820-w37604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23675-w610006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31989-w610019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9438-w610007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21526-w37644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31363-w37631.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23675-w610006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17384-w610061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31363-w37631.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13642-w37167.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9438-w610007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6820-w37604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21514-w24954.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31991-w610060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12058-w131480.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25723-w37654.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17384-w610061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6829-w37997.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25723-w37654.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21514-w24954.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13642-w37167.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34016-w37591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17372-w37584.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23657-w37751.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34016-w37591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29897-w37664.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15212-w37711.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12081-w610055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13648-w37574.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15212-w37711.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15268-w37634.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13329-w37601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31360-w37581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13648-w37574.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13329-w37601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31360-w37581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29897-w37664.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15268-w37634.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23657-w37751.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17372-w37584.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23649-w37223.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23649-w37223.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21530-w37977.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21530-w37977.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15273-w37840.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15273-w37840.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21632-13701.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21632-13701.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31960-w36079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31960-w36079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13311-w18009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13311-w18009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21511-w19109.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21511-w19109.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19400-w19746.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19400-w19746.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9410-w18196.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9410-w18196.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9409-w14069.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9409-w14069.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9428-w37863.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9428-w37863.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31966-w37316.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31966-w37316.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15193-w370042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15193-w370042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23670-w41719.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23670-w41719.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31994-w86000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31994-w86000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129374-w619069.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129374-w619069.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21521-w37263.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21521-w37263.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97816-w619061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97816-w619061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89686-w619041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89686-w619041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86396-w619057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86396-w619057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50588-w619005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50588-w619005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15253-w28720.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13635-w17786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17350-w123247.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17350-w123247.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13635-w17786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15253-w28720.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9419-w37249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9419-w37249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15190-w32553.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50583-w619011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50589-w619010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89699-w619040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50583-w619011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50589-w619010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89699-w619040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15190-w32553.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29887-w37099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34004-w370034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34007-w37100.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25714-w37413.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34004-w370034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17391-w71216.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15205-w37553.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21510-w19090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25714-w37413.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29887-w37099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19409-w37269.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34007-w37100.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21510-w19090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12086-w71203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31353-w37270.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6832-w45960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12086-w71203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19409-w37269.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6832-w45960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31353-w37270.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17391-w71216.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15205-w37553.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89700-w619042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15256-w34043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89671-w619043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25703-w35326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89698-w619024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89700-w619042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66970-w619012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66970-w619012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15256-w34043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89671-w619043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25703-w35326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89698-w619024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50584-w619004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50584-w619004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12057-w123278.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31978-w37940.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23637-w10583.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12057-w123278.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31978-w37940.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23637-w10583.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2090-351489.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2090-351489.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9425-w37690.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9425-w37690.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50600-w619013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50600-w619013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50592-w619006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50592-w619006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50591-w619007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50591-w619007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89687-w619045.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89687-w619045.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23638-w123246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23638-w123246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31357-w37390.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31357-w37390.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31961-w37160.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31961-w37160.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13320-w36106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17356-w34333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15248-w14206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31350-w37159.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17362-w37310.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13650-w37593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25709-w37230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13656-w37960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17356-w34333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6806-w370050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31350-w37159.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17362-w37310.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13656-w37960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12066-w37090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23648-w37149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23648-w37149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12066-w37090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17392-w73609.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6806-w370050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25709-w37230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13650-w37593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13320-w36106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15291-w93083.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15248-w14206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17392-w73609.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15291-w93083.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31963-w37250.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31963-w37250.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105546-w619076.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105546-w619076.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105676-w619082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105676-w619082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25697-w18010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25697-w18010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4310-35822.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4310-35822.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31372-w37850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31372-w37850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17382-w57146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17382-w57146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34013-w37423.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6828-w37969.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23660-w37783.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34024-w73620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6816-w37546.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15279-w45999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31967-w37426.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31967-w37426.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15279-w45999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6824-w37696.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6828-w37969.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23660-w37783.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34024-w73620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6816-w37546.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12061-w20933.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34013-w37423.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34017-w37686.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12061-w20933.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13333-w37786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15218-w37970.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25724-w37693.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25724-w37693.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15218-w37970.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34017-w37686.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12071-w37349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17378-w37849.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23674-w59240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23674-w59240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9429-w37869.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12071-w37349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17378-w37849.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9429-w37869.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13631-w123277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13333-w37786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17349-w123242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17351-w123248.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17376-w37729.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13631-w123277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15199-w37356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19408-w37256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17351-w123248.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13318-w36059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19408-w37256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15199-w37356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13318-w36059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17349-w123242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19403-w35139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17376-w37729.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50594-w619014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19403-w35139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50585-w619015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50594-w619014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50596-w619009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50585-w619015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89688-w619051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89688-w619051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6822-w37619.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50596-w619009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34006-w37093.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34006-w37093.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17390-w71210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34021-w37943.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21523-w37353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9420-w37253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25712-w37333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13640-w36029.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15197-w37236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15197-w37236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13640-w36029.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12091-w96879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34021-w37943.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17390-w71210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19416-w37803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25712-w37333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9420-w37253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6822-w37619.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12091-w96879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19416-w37803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13338-w37860.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21523-w37353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15264-w37180.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12056-w123250.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23672-w51086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17353-w123251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6818-w37576.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31962-w37210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25721-w37643.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13338-w37860.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21525-w37626.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6809-w37320.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31376-w37999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31981-w37979.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21513-w24489.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31376-w37999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31981-w37979.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23672-w51086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6809-w37320.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6818-w37576.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12056-w123250.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25721-w37643.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17353-w123251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21513-w24489.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31962-w37210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21525-w37626.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126384-w619072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15264-w37180.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31976-w37866.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126384-w619072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31366-w37663.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31976-w37866.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6823-w37646.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12064-w370051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13356-w93356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31366-w37663.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12064-w370051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6823-w37646.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89658-w619023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13356-w93356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89660-w619047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89660-w619047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31959-w36060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89658-w619023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25699-w19236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25699-w19236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6807-w37036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21528-w37730.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19415-w37760.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19415-w37760.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21528-w37730.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31959-w36060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12055-w10580.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12055-w10580.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15208-w37583.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6807-w37036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104670-w619078.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15208-w37583.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31380-w55890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104670-w619078.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90244-w619052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31380-w55890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29874-w123243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90244-w619052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23646-w370061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29874-w123243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45296-w619002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23646-w370061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19404-w37046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45296-w619002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29876-w14493.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15251-w17789.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13654-w37876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29904-w49233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31348-w37146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15287-w73623.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33997-w13369.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13309-w15306.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29904-w49233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31344-w35073.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29883-w28850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6833-w49680.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15251-w17789.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19404-w37046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6833-w49680.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29876-w14493.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15287-w73623.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13654-w37876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13353-w73626.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31348-w37146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31344-w35073.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33997-w13369.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13309-w15306.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13353-w73626.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15192-w34876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29883-w28850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23669-w37983.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15192-w34876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19413-w37569.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19413-w37569.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19307-m128206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23669-w37983.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23645-w370055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19307-m128206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17352-w123249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34012-w37336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34011-w37313.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23645-w370055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17369-w37499.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12063-w370031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25732-w37963.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17357-w370082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9432-w40823.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6801-w18290.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9426-w37780.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17352-w123249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6801-w18290.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9432-w40823.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34012-w37336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21540-w90550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12063-w370031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25732-w37963.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17357-w370082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29886-w370038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21540-w90550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31979-w37966.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13344-w45996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25718-w37599.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29886-w370038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15204-w37420.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17377-w37846.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34029-w96613.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12076-w37709.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17377-w37846.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17380-w37856.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25720-w37639.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34029-w96613.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12076-w37709.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15204-w37420.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13336-w37853.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25720-w37639.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17380-w37856.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25718-w37599.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51137-m639012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13336-w37853.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31340-w123241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31979-w37966.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6815-w37409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51137-m639012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105596-w619081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31340-w123241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104615-w619075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6815-w37409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106380-w619070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105596-w619081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23650-w37246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104615-w619075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21517-w36009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106380-w619070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91596-w619058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23650-w37246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85596-w619019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21517-w36009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-93013-w619056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91596-w619058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12069-w37283.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85596-w619019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15209-w37590.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-93013-w619056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6805-w370027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25706-w37033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9416-w37116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15209-w37590.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34014-w37549.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12069-w37283.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25706-w37033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34019-w37779.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34019-w37779.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34014-w37549.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15207-w37570.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6805-w370027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31969-w37539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9416-w37116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17371-w37580.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23683-w96773.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19414-w37640.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17371-w37580.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31975-w37799.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19414-w37640.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31375-w37996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31975-w37799.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13668-w90549.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31969-w37539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23683-w96773.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31375-w37996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17375-w37710.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15207-w37570.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12054-w101610.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13668-w90549.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17373-w37660.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17375-w37710.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9443-w619000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17373-w37660.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104957-w619077.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12054-w101610.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128183-w619088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9443-w619000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128197-w619089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128183-w619088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29902-w37976.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128197-w619089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23643-w36010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104957-w619077.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106955-w619084.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23643-w36010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21816-351520.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29902-w37976.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6898-351146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106955-w619084.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106232-w619085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21816-351520.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104623-w619079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6898-351146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87217-w619034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104623-w619079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17367-w37459.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106232-w619085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87229-w619022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17367-w37459.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138675-w619073.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87217-w619034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106247-w619086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87229-w619022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128182-w619087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138675-w619073.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91595-w619053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106247-w619086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1561-19381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128182-w619087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26902-19341.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91595-w619053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30509-8418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1561-19381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33408-96855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26902-19341.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15383-12222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30509-8418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21693-19349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33408-96855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18814-96847.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21693-19349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1226-13620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15383-12222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4304-351743.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18814-96847.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-727-13688.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1226-13620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1702-19386.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4304-351743.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32163-19382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-727-13688.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19596-19325.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32163-19382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6957-351756.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1702-19386.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21817-351656.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19596-19325.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33407-96618.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21817-351656.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4846-m39865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6957-351756.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23702-123245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33407-96618.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-746-13690.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4846-m39865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25966-351556.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2932-352146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2932-352146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25966-351556.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4289-33149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23702-123245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4801-m390007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-746-13690.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21469-m39855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4289-33149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21429-m390001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4801-m390007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-11823-5382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21469-m39855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9643-3600.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21429-m390001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48407-11303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-11823-5382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25949-33150.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9643-3600.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27905-46349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48407-11303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19345-m39578.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25949-33150.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34848-11304.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27905-46349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4303-351662.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19345-m39578.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17831-46350.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34848-11304.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4881-3644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4303-351662.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21814-351145.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17831-46350.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21832-35812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4881-3644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19790-39070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21814-351145.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17830-46347.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21832-35812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24069-46348.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19790-39070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24070-46365.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24069-46348.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9359-m39655.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24070-46365.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32278-35629.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17830-46347.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27127-33151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9359-m39655.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9641-3577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32278-35629.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15576-351732.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9641-3577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2111-3609.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15576-351732.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79165-w619999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27127-33151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54024-82571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2111-3609.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2926-351588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79165-w619999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-442-108108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54024-82571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19721-33171.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2926-351588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17679-351515.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-442-108108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27469-351545.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19721-33171.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7429-3633.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17679-351515.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19749-35844.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27469-351545.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27382-33120.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19749-35844.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7419-35886.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7429-3633.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9642-35895.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17662-33184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17662-33184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27382-33120.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27251-35108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19738-35492.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2929-351768.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25969-351952.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7413-35627.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27251-35108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25969-351952.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2119-3636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19738-35492.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7423-3608.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2119-3636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7413-35627.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7423-3608.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2929-351768.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7404-351144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7419-35886.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22156-5381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9642-35895.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17309-m39805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7404-351144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23595-m39592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22156-5381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26317-5355.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17309-m39805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13556-m390186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23595-m39592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21438-m390301.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26317-5355.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4802-m390023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13556-m390186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4815-m390286.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21438-m390301.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4817-m390292.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4802-m390023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15138-m39890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14830-m390299.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14830-m390299.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4815-m390286.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9341-m390375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15138-m39890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21440-m390357.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4817-m390292.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19314-m390032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21440-m390357.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23568-m390132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9341-m390375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9328-m12579.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19314-m390032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9332-m390175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23568-m390132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19317-m390111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13224-m390141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23577-m390296.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9332-m390175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13224-m390141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19324-m390233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4814-m390274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9328-m12579.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14836-m390410.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23577-m390296.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19324-m390233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4814-m390274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105089-m631037.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19317-m390111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13553-m390110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14836-m390410.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27470-351711.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105089-m631037.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9339-m390352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13553-m390110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19315-m390050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27470-351711.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15120-m390402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9339-m390352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25656-m39879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15120-m390402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21426-m2842.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19315-m390050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21430-m390071.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25656-m39879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33944-m390353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21426-m2842.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80153-m630504.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21430-m390071.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14825-m390123.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33944-m390353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4803-m390085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80153-m630504.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4845-m39850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14825-m390123.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23584-m390615.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21434-m390236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17308-m39800.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4845-m39850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21434-m390236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17308-m39800.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2095-352131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23584-m390615.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6951-351217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4803-m390085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14832-m390333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6951-351217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19735-351537.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2095-352131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23574-m390254.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14832-m390333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31261-m390177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19735-351537.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15107-m390143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23574-m390254.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17288-m390148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31261-m390177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21432-m390206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15107-m390143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13227-m390276.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21432-m390206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14829-m390289.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17288-m390148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6735-m390288.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13227-m390276.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15116-m390319.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13569-m390513.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13569-m390513.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15116-m390319.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17683-351951.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6735-m390288.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17682-351924.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14829-m390289.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31274-m390425.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17682-351924.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19015-cm39803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17683-351951.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3180-42030.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31274-m390425.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31877-m390008.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19015-cm39803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4805-m390109.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3180-42030.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17285-m390006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4805-m390109.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6736-m390316.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31877-m390008.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13566-m390401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17285-m390006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21485-m630184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6736-m390316.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2178-42035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13566-m390401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9343-m390503.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21485-m630184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86096-924-786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2178-42035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4849-m39983.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9343-m390503.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27403-42081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86096-924-786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15113-m390246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4849-m39983.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19322-m390205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27403-42081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23598-m39799.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15113-m390246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17292-m390282.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19322-m390205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25652-m39773.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23598-m39799.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29801-m390300.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17292-m390282.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31880-m390209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25652-m39773.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68663-m630639.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29801-m390300.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68679-m630638.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31880-m390209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67479-h621894.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68679-m630638.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67386-h621895.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68663-m630639.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14822-m390044.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67386-h621895.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31266-m390220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67479-h621894.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4828-m390591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14822-m390044.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33937-m390215.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31266-m390220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33938-m390219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4828-m390591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33933-m390130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33937-m390215.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31276-m390450.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33938-m390219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19316-m390099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33933-m390130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17287-m390126.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31276-m390450.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29803-m390326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19316-m390099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13231-m390331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29803-m390326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13568-m390448.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17287-m390126.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86832-m639047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13231-m390331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96003-924-908.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13568-m390448.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86473-924-791.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86832-m639047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13222-m390026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96003-924-908.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21447-m390550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86473-924-791.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80080-m630378.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13222-m390026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6772-m630272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21447-m390550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33964-m630048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80080-m630378.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23603-m630054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6772-m630272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31310-m630194.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33964-m630048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50135-m630542.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23603-m630054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31886-m390467.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31310-m630194.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80890-m630236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50135-m630542.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34064-m630409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31886-m390467.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15147-m630051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80890-m630236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51816-m630636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34064-m630409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13609-m630345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21489-m630385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21489-m630385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13609-m630345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4856-m630181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51816-m630636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31298-m39957.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15147-m630051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9377-m630238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4856-m630181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4824-m390418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9377-m630238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49394-m630025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31298-m39957.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29832-m630119.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4824-m390418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15157-m630242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29846-m630360.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23610-m630182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15157-m630242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29846-m630360.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13272-m630225.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13272-m630225.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29832-m630119.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65295-m630591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49394-m630025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104030-m630990.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23610-m630182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13265-m630056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65295-m630591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65860-m630641.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104030-m630990.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49400-m630026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13265-m630056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13274-m630241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23613-m630381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14872-m630168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-35187-m630438.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4855-m630105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14872-m630168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19369-m630338.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49400-m630026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4863-m630339.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4855-m630105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23613-m630381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19369-m630338.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50644-m630527.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4863-m630339.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-35187-m630438.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34072-m630427.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34072-m630427.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13274-m630241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15108-m390162.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65860-m630641.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9366-m39970.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50644-m630527.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68651-m630566.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9366-m39970.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52155-m630610.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15108-m390162.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29789-m390024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68651-m630566.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46969-m630200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29789-m390024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45411-m630201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52155-m630610.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13267-m630117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46969-m630200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6768-m630192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13267-m630117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106032-989-009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45411-m630201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33946-m390406.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6768-m630192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15141-m39961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106032-989-009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97715-924-789.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33946-m390406.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15139-m39944.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15141-m39961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46918-m630147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97715-924-789.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4797-m134440.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51495-m630635.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34608-m630429.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13600-m630186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13264-m630053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34608-m630429.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13600-m630186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15139-m39944.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51495-m630635.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13264-m630053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-92911-m630852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4797-m134440.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15132-m39736.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46918-m630147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15146-m630012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-92911-m630852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4820-m390367.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15132-m39736.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21481-m630133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15146-m630012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67418-m630697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4820-m390367.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51491-m630555.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21481-m630133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-35184-m630383.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67418-m630697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29839-m630231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-35184-m630383.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19373-m630431.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51491-m630555.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9371-m630032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19373-m630431.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68598-m630695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29839-m630231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13590-m630010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9371-m630032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21431-m390089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68598-m630695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105398-989-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13590-m630010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68603-m630696.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21431-m390089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91256-m630669.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105398-989-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53235-m630679.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68603-m630696.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51143-m630573.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91256-m630669.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84734-m630890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53235-m630679.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68628-m630538.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51143-m630573.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17316-m630166.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84734-m630890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34580-m630388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68628-m630538.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23962-42046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17316-m630166.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9368-m39984.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34580-m630388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79934-m630761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23962-42046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31924-m630270.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9368-m39984.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14879-m630229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79934-m630761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29834-m630156.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31924-m630270.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52169-m630393.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14879-m630229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50639-m630571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29834-m630156.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29830-m630097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50639-m630571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25651-m39761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52169-m630393.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14855-m39741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29830-m630097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13255-m39806.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25651-m39761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29322-b12057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14855-m39741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104573-989-039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13255-m39806.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34644-m630450.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29322-b12057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17319-m630220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104573-989-039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9375-m630219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34644-m630450.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25668-m630163.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17319-m630220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105404-989-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9375-m630219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75352-905-931.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25668-m630163.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34581-m630389.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105404-989-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23567-m390117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75352-905-931.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14862-m39996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34581-m630389.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13603-m630222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23567-m390117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103575-989-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14862-m39996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31316-m83579.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13603-m630222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51822-m630470.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103575-989-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68591-m630570.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31316-m83579.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80877-m630690.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51822-m630470.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45257-m630533.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68591-m630570.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33943-m390338.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80877-m630690.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25643-m390509.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45257-m630533.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17315-m630079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33943-m390338.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19348-m39649.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25643-m390509.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45168-m630330.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17315-m630079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68563-m630740.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19348-m39649.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68541-m630741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45168-m630330.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31314-m630396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68541-m630741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50612-m630572.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68563-m630740.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6758-m39861.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31314-m630396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105405-989-007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50612-m630572.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54279-m630674.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6758-m39861.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53760-m630675.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105405-989-007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6766-m630189.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54279-m630674.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6767-m630190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53760-m630675.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84743-m630762.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6766-m630189.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91535-m630903.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6767-m630190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45252-m630534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84743-m630762.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50633-m630540.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91535-m630903.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46736-m630060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45252-m630534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23608-m630111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50633-m630540.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-141312-m630960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46736-m630060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51485-m630515.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23608-m630111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17291-m390184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-141312-m630960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31311-m630243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51485-m630515.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13608-m630298.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17291-m390184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9724-42098.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31311-m630243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31883-m390279.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13608-m630298.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15127-m39593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9724-42098.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49860-m630514.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31883-m390279.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91258-m630860.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15127-m39593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31915-m630049.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49860-m630514.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31928-m630332.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91258-m630860.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13261-m630017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31915-m630049.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4842-m39636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31928-m630332.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68229-m630485.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13261-m630017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21460-m39630.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4842-m39636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21490-m630398.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68229-m630485.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25639-m390336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21460-m39630.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23585-m39309.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21490-m630398.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68680-m630693.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25639-m390336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75368-905-932.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23585-m39309.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15162-m630367.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68680-m630693.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23092-b10675.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75368-905-932.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25164-b16932.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15162-m630367.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68673-m630764.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23092-b10675.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14864-m56193.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25164-b16932.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34206-m630439.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68673-m630764.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8906-b5994.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14864-m56193.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54281-m630663.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34206-m630439.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51512-m630626.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8906-b5994.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9776-42040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54281-m630663.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4844-m39791.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51512-m630626.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49410-m630486.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9776-42040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78232-m630839.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4844-m39791.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53753-m630622.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49410-m630486.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73090-m630556.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78232-m630839.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17301-m39476.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53753-m630622.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13285-m71265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73090-m630556.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26047-42106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17301-m39476.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67694-42053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13285-m71265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31884-m390337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26047-42106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53750-m630517.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67694-42053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51499-m630625.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31884-m390337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53171-m630692.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53750-m630517.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9380-m630274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51499-m630625.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15122-m39434.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53171-m630692.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29840-m630281.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9380-m630274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51498-m630624.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15122-m39434.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68502-m630507.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29840-m630281.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45293-m630451.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51498-m630624.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14881-m630283.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68502-m630507.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14882-m630284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45293-m630451.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85605-603-642.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14881-m630283.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19367-m630312.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14882-m630284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50648-m630509.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85605-603-642.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51515-m630623.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19367-m630312.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9384-m630334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50648-m630509.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25624-m101266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51515-m630623.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52177-m630505.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9384-m630334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73484-m630595.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25624-m101266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144409-610-6761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52177-m630505.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31294-m39767.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73484-m630595.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53205-m630666.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144409-610-6761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7483-42041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31294-m39767.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7030-42108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53205-m630666.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29734-hw2232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7483-42041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27618-42079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7030-42108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51130-m630628.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29734-hw2232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144408-610-676.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27618-42079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13122-h86586.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51130-m630628.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50277-924-220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144408-610-676.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103467-610-6181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13122-h86586.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139056-610-7851.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50277-924-220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23508-hw2230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103467-610-6181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-140742-47821.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139056-610-7851.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129842-47822.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23508-hw2230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128264-47823.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129097-47824.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129097-47824.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-140742-47821.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105605-924-685.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129842-47822.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139057-610-785.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128264-47823.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17521-13867.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105605-924-685.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103480-610-618.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139057-610-785.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107043-610-5941.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17521-13867.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103479-610-6151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103480-610-618.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107037-610-5911.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107043-610-5941.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107035-610-5901.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107037-610-5911.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107031-610-5871.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107035-610-5901.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107105-610-5881.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103479-610-6151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102688-610-6131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107031-610-5871.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102681-610-6141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107105-610-5881.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107041-610-5931.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102688-610-6131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96550-924-658.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102681-610-6141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107042-610-594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107041-610-5931.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107030-610-587.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96550-924-658.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103472-610-615.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107042-610-594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107036-610-591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107030-610-587.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107104-610-588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107036-610-591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102687-610-613.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103472-610-615.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107040-610-593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107104-610-588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102680-610-614.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102687-610-613.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33721-h38354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107040-610-593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29565-h38132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102680-610-614.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6638-hw1456-10.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33721-h38354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25556-hw1456.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29565-h38132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139588-947-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6638-hw1456-10.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81090-924-375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25556-hw1456.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131929-610-04995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139588-947-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-132343-610-042210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81090-924-375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137413-924-234.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131929-610-04995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27765-45490.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-132343-610-042210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100730-963-056d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137413-924-234.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10953-963-056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27765-45490.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45360-924-212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100730-963-056d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20439-700-368.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10953-963-056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97759-924-659.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45360-924-212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106933-947-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20439-700-368.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89143-924-656.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97759-924-659.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49987-924-218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106933-947-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96524-924-661.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89143-924-656.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128113-924-694.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49987-924-218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100884-963-205d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128113-924-694.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-136916-947-011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96524-924-661.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-153244-947-065.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54736-963-205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137098-799-443.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-136916-947-011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134763-924-237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153244-947-065.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102749-924-684.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137098-799-443.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49997-924-219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102749-924-684.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65579-700-038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134763-924-237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-145839-947-056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49997-924-219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65579-700-038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-145839-947-056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3804-700-251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13344-w45996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34011-w37313.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3804-700-251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17369-w37499.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153718-949-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9426-w37780.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12081-w610055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12561,7 +12561,17 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54736-963-205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100884-963-205d.aspx?origin=keyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/p-6824-w37696.aspx?origin=keyword</t>
         </is>
       </c>
     </row>

--- a/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1214"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31972-w37685.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25694-w120343.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25694-w120343.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31972-w37685.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13634-w14068.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31988-w610012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31988-w610012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13634-w14068.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15232-w96402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23640-w17508.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23640-w17508.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15232-w96402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21531-w41718.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21534-w610013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21534-w610013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21531-w41718.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13645-w37248.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13315-w3396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31977-w37938.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9442-w610116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13315-w3396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13645-w37248.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9442-w610116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31977-w37938.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65437-w610186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86779-w610199.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86299-w610228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65437-w610186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86870-w610217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65890-w610187.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86779-w610199.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86299-w610228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65890-w610187.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86870-w610217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13644-w37238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31373-w37868.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13636-w26172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15257-w34152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15266-w37542.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25731-w37958.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25731-w37958.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13636-w26172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31378-w4571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23644-w36075.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23644-w36075.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13334-w37848.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9434-w46252.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15266-w37542.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13334-w37848.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13644-w37238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31983-w4802.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31378-w4571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23678-w71202.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31351-w37228.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31373-w37868.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9434-w46252.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15257-w34152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31983-w4802.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31351-w37228.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23678-w71202.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15250-w15308.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86805-w610198.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29872-w10582.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86806-w610200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9441-w610115.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15250-w15308.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86805-w610198.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29872-w10582.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86806-w610200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9441-w610115.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89308-w610222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79420-w610170.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86752-w610192.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89308-w610222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79420-w610170.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86752-w610192.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65685-w610184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-125153-w610190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46288-w610145.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86807-w610203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65791-w610185.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86761-w610220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86807-w610203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86763-w610236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86763-w610236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65685-w610184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65407-w610178.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65791-w610185.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65428-w610179.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65407-w610178.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86761-w610220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46288-w610145.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-125153-w610190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65428-w610179.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15210-w37595.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15285-w73608.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23680-w7563.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6798-w14205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15289-w7564.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25705-w36105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9414-w37018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13313-w28805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6798-w14205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9414-w37018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25705-w36105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15290-w78052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13313-w28805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15210-w37595.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15285-w73608.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23680-w7563.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15290-w78052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31338-w10028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31338-w10028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15289-w7564.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65432-w610172.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89311-w610221.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89311-w610221.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65432-w610172.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15226-w610134.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15282-w610128.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46121-w610147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15226-w610134.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15282-w610128.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31387-w610135.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6837-w610122.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46121-w610147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31387-w610135.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6837-w610122.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31343-w32552.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19402-w32555.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19402-w32555.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31343-w32552.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34008-w37208.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13341-w37968.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13341-w37968.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25713-w37405.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25713-w37405.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34008-w37208.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46318-w610152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25743-w99284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65399-w610171.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23671-w4803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48703-w610159.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31984-w4804.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25743-w99284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46318-w610152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23671-w4803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48703-w610159.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31984-w4804.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65399-w610171.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126855-w610245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15272-w37785.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15271-w37782.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31359-w37535.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13337-w37858.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15271-w37782.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31359-w37535.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19397-w134494.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15272-w37785.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13337-w37858.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19397-w134494.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126855-w610245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31385-w610114.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13322-w37168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13322-w37168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31365-w37645.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17387-w610120.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29910-w610121.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29910-w610121.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17395-w93337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31365-w37645.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31385-w610114.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17395-w93337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17387-w610120.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6819-w37602.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13324-w37262.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23658-w37752.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13662-w610126.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31362-w37625.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9412-w32092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13649-w37592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23658-w37752.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23653-w37575.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31362-w37625.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13662-w610126.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6819-w37602.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9412-w32092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13649-w37592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13324-w37262.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23653-w37575.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29911-w610127.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21538-w73605.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25707-w37042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29911-w610127.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34022-w4876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9415-w37052.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9415-w37052.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34022-w4876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31346-w37035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9445-w7537.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21538-w73605.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31346-w37035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9445-w7537.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25707-w37042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86753-w610197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86298-w610227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86298-w610227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86778-w610196.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86778-w610196.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86753-w610197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13647-w37548.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31986-w49235.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13325-w37468.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15186-w16535.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15278-w40418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13647-w37548.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31958-w32072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13325-w37468.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15276-w37875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9408-w13368.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15186-w16535.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34025-w73622.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9408-w13368.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15278-w40418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31986-w49235.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15276-w37875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25702-w34475.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31958-w32072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34025-w73622.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25702-w34475.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90234-w610238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12078-w51088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65418-w610169.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90234-w610238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12078-w51088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65418-w610169.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86877-w610237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86762-w610224.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86780-w610214.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86310-w610225.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86762-w610224.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49384-w610160.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86310-w610225.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86877-w610237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79926-w610204.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86780-w610214.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50669-w610162.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79926-w610204.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49384-w610160.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50669-w610162.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25742-w610141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29912-w610133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29912-w610133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15284-w610139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13351-w610138.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25742-w610141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15284-w610139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45846-w610156.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29914-w610140.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51157-w610168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51157-w610168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29914-w610140.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45846-w610156.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23663-w37842.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23663-w37842.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29873-w10588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17388-w610132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9436-w6092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9430-w37982.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12060-w20932.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31974-w37698.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9430-w37982.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29888-w37152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6814-w37382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6836-w610110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29888-w37152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6814-w37382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31974-w37698.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29873-w10588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17388-w610132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9436-w6092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6836-w610110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12060-w20932.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15203-w37418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15200-w37375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15213-w37778.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25735-w37985.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13342-w37995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15213-w37778.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25735-w37985.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13342-w37995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15200-w37375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15203-w37418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31965-w37315.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13304-w102152.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13639-w36028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31965-w37315.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12070-w3730.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15227-w7379.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13658-w4511.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25708-w37222.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15227-w7379.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13639-w36028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9444-w7536.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31964-w37255.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9418-w37182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12070-w3730.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19418-w4358.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9418-w37182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25708-w37222.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13658-w4511.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31374-w37942.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19418-w4358.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31964-w37255.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9444-w7536.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13304-w102152.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31374-w37942.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86809-w610219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73176-w610188.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89366-w610195.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65721-w610182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65400-w610177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89366-w610195.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73176-w610188.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65691-w610183.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86808-w610218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86809-w610219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65721-w610182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65400-w610177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65691-w610183.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86808-w610218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15267-w37578.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17389-w610143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6812-w37352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6831-w45872.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29879-w14522.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23661-w37802.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34010-w37245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19407-w37252.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12085-w610142.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23681-w78745.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25729-w37812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15267-w37578.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17389-w610143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34010-w37245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23665-w37865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12085-w610142.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6831-w45872.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21515-w34178.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23681-w78745.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29879-w14522.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19407-w37252.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23665-w37865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21515-w34178.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25729-w37812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23661-w37802.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6812-w37352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9427-w37845.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9427-w37845.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31379-w45997.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31379-w45997.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48713-w610161.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31957-w17507.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15283-w610131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48713-w610161.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13665-w79768.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15283-w610131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13350-w610130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13665-w79768.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31957-w17507.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31980-w37975.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90692-w610206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31985-w4875.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90671-w610207.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80065-w610232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106462-w610243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13350-w610130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80065-w610232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90692-w610206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31985-w4875.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90671-w610207.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31980-w37975.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106462-w610243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45764-w610148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65886-w610189.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31386-w610118.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45764-w610148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65886-w610189.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31386-w610118.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45974-w610149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45974-w610149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17364-w37335.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17364-w37335.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29898-w37668.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34005-w37092.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25722-w37648.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46060-w610155.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15269-w37658.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31356-w37322.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12077-w45995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15269-w37658.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31356-w37322.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12077-w45995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13653-w37862.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31992-w610113.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17379-w37852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13653-w37862.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34005-w37092.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29898-w37668.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31992-w610113.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17379-w37852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46060-w610155.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25722-w37648.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80089-w610194.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97771-w610239.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6825-w37805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90739-w610241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15244-w116386.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80089-w610194.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9433-w40952.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6825-w37805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12075-w37708.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15244-w116386.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13308-w13388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25733-w37965.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6826-w37955.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6826-w37955.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15185-w116229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15185-w116229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25733-w37965.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9433-w40952.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13340-w37962.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13340-w37962.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97771-w610239.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13308-w13388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90739-w610241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12075-w37708.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13651-w37855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13651-w37855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17396-w96254.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17396-w96254.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23652-w37317.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23652-w37317.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34009-w37224.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34009-w37224.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9424-w37638.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15225-w610112.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80064-w610231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80064-w610231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80090-w610213.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9424-w37638.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15225-w610112.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80090-w610213.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-90740-w610242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-90740-w610242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13312-w19107.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13312-w19107.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23659-w37781.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23659-w37781.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15281-w610067.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15281-w610067.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31384-w610068.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31384-w610068.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23666-w37870.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23666-w37870.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6800-w18197.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6800-w18197.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13666-w8267.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13666-w8267.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29895-w37414.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12068-w37257.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19422-w610004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19422-w610004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12068-w37257.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29895-w37414.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-93007-w619048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-93007-w619048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13314-w32091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13314-w32091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6804-w36074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31382-w610027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31369-w37694.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6804-w36074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13345-w46251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13345-w46251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13643-w37227.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13643-w37227.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29890-w37247.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25710-w37307.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29908-w610032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23642-w34151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13670-w96878.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29890-w37247.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34015-w37554.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31369-w37694.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31382-w610027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13346-w610005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23679-w71211.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34015-w37554.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23642-w34151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29908-w610032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25710-w37307.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23679-w71211.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13346-w610005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13670-w96878.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31392-w9697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31392-w9697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15259-w37051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15259-w37051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33998-w16534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33998-w16534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9411-w18984.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9411-w18984.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15280-w610038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15280-w610038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15222-w610028.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23676-w610016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31342-w14494.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15261-w37151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31393-w9698.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15254-w32071.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13661-w610065.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25701-w34474.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29905-w49234.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17385-w610064.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25701-w34474.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13661-w610065.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15254-w32071.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19420-w50014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15201-w37381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25737-w45961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17385-w610064.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31970-w37547.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19420-w50014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15222-w610028.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23676-w610016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29905-w49234.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15252-w28661.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31393-w9698.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19405-w37101.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15201-w37381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31970-w37547.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15252-w28661.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15261-w37151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19405-w37101.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13638-w35074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31342-w14494.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25737-w45961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13638-w35074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19411-w37417.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19411-w37417.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6802-w18291.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6802-w18291.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12082-w610056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6810-w37347.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23668-w37967.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23668-w37967.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6810-w37347.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12082-w610056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19423-w610010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19423-w610010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19412-w37531.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25727-w37784.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15206-w37564.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19412-w37531.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13347-w610039.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15206-w37564.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13348-w610040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15293-w96472.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25727-w37784.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13347-w610039.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15293-w96472.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13348-w610040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17370-w37571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17370-w37571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12083-w610058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12083-w610058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13646-w37391.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13646-w37391.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13354-w79767.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13655-w37957.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34020-w37847.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34020-w37847.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23664-w37857.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23664-w37857.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13655-w37957.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13354-w79767.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100430-w619060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100430-w619060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31383-w610057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31383-w610057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31993-w73621.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15196-w37034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15229-w80148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19417-w40417.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15221-w49331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15229-w80148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19417-w40417.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33999-w19091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15196-w37034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15221-w49331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17374-w37697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17361-w37284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13332-w37687.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17374-w37697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33999-w19091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31993-w73621.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17361-w37284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13332-w37687.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105566-w619074.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105566-w619074.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31391-w8266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31391-w8266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29901-w37787.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29901-w37787.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31367-w37677.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31367-w37677.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34028-w9344.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34028-w9344.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19427-w9345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19427-w9345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23639-w15307.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23639-w15307.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21535-w610033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21535-w610033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29917-w949.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29917-w949.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13330-w37636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13330-w37636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13357-w9696.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13357-w9696.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21542-w9695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21520-w37254.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21524-w37354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25704-w36027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15198-w37314.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21542-w9695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21520-w37254.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15198-w37314.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25704-w36027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21524-w37354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25730-w37841.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25730-w37841.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23651-w37251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23651-w37251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17386-w610066.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31971-w37597.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31352-w37231.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21529-w37941.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15217-w37954.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13331-w37647.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25711-w37321.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23662-w37811.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34001-w34177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21522-w37311.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23662-w37811.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31352-w37231.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21522-w37311.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29878-w14521.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13349-w610050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17386-w610066.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6830-w45871.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6830-w45871.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19410-w37334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25711-w37321.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13331-w37647.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15217-w37954.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29878-w14521.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34001-w34177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31971-w37597.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19410-w37334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21529-w37941.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13349-w610050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25739-w610022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25739-w610022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25740-w610034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25740-w610034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26574-101673.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26574-101673.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13659-w57147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13659-w57147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15292-w96399.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15292-w96399.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6834-w51087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25736-w40824.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31987-w610008.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13343-w40951.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29881-w19111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9439-w610020.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19424-w610014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31381-w610021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13652-w37861.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13628-w100674.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13335-w37851.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31987-w610008.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9437-w610002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19424-w610014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12079-w610003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6834-w51087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13339-w37864.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13339-w37864.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9439-w610020.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12079-w610003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31381-w610021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21518-w37091.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25736-w40824.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29881-w19111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13343-w40951.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13652-w37861.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13628-w100674.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13335-w37851.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21518-w37091.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9437-w610002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15219-w37986.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13664-w78734.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15274-w37854.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13327-w37577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13664-w78734.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15274-w37854.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21527-w37707.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21527-w37707.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6827-w37961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6827-w37961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31364-w37637.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6797-w13387.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13327-w37577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31364-w37637.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6797-w13387.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15219-w37986.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29885-w36011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29885-w36011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29916-w8264.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29916-w8264.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17394-w8265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17394-w8265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25738-w610018.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21512-w19237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6796-w10581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25738-w610018.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12065-w37047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25726-w37761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21512-w19237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6796-w10581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25726-w37761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12065-w37047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29877-w14497.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29877-w14497.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3110-351560.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31361-w37594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13316-w34334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9435-w49681.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12067-w37147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34018-w37741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29907-w610031.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15288-w73627.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15223-w610048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12067-w37147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15260-w37117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15189-w28804.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15286-w73617.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15223-w610048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15195-w37017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21539-w9004.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31361-w37594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23682-w9005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9435-w49681.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29907-w610031.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15189-w28804.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13316-w34334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21539-w9004.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15260-w37117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23682-w9005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13641-w36041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15288-w73627.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15195-w37017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34018-w37741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15286-w73617.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13641-w36041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3110-351560.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15255-w32551.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15255-w32551.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12080-w610043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12080-w610043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23673-w55891.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23673-w55891.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6840-w96718.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6840-w96718.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15215-w37839.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15215-w37839.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31989-w610019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6829-w37997.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12058-w131480.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31991-w610060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17384-w610061.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6820-w37604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21514-w24954.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31989-w610019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31363-w37631.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21526-w37644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6829-w37997.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23675-w610006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13642-w37167.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31363-w37631.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23675-w610006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21514-w24954.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31991-w610060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12058-w131480.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6820-w37604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17384-w610061.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21526-w37644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13642-w37167.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12081-w610055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17372-w37584.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34016-w37591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34016-w37591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17372-w37584.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15212-w37711.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31360-w37581.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13648-w37574.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15268-w37634.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15268-w37634.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13329-w37601.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31360-w37581.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23657-w37751.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13329-w37601.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13648-w37574.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29897-w37664.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15212-w37711.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23657-w37751.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29897-w37664.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23670-w41719.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31994-w86000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31994-w86000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23670-w41719.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89686-w619041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50588-w619005.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86396-w619057.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89686-w619041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50588-w619005.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86396-w619057.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15253-w28720.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17350-w123247.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17350-w123247.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13635-w17786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17381-w37939.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15253-w28720.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13635-w17786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9419-w37249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9419-w37249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17381-w37939.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15190-w32553.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50589-w619010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50589-w619010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50583-w619011.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50583-w619011.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89699-w619040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89699-w619040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34007-w37100.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29887-w37099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31353-w37270.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34007-w37100.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29887-w37099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34004-w370034.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21510-w19090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13321-w37089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19409-w37269.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15205-w37553.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17391-w71216.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25714-w37413.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13321-w37089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19409-w37269.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34004-w370034.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21510-w19090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25714-w37413.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31353-w37270.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15205-w37553.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12086-w71203.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6832-w45960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6832-w45960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12086-w71203.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17391-w71216.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15190-w32553.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89700-w619042.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15256-w34043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89671-w619043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25703-w35326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89698-w619024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-66970-w619012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-66970-w619012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89698-w619024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15256-w34043.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89700-w619042.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25703-w35326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89671-w619043.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12057-w123278.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23637-w10583.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13305-w123244.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12057-w123278.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23637-w10583.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13305-w123244.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2090-351489.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9425-w37690.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9425-w37690.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2090-351489.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50600-w619013.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89687-w619045.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50592-w619006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50600-w619013.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50591-w619007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50592-w619006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89687-w619045.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50591-w619007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23638-w123246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31961-w37160.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31961-w37160.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23638-w123246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13320-w36106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25697-w18010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15248-w14206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6806-w370050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17362-w37310.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23648-w37149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25709-w37230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31350-w37159.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17356-w34333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25709-w37230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31350-w37159.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17362-w37310.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13656-w37960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15248-w14206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23648-w37149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13656-w37960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12066-w37090.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13650-w37593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6806-w370050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13320-w36106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13650-w37593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12066-w37090.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15291-w93083.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17392-w73609.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17392-w73609.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15291-w93083.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31963-w37250.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17356-w34333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105546-w619076.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31963-w37250.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105676-w619082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105546-w619076.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25697-w18010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105676-w619082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31372-w37850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17382-w57146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17382-w57146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31372-w37850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34013-w37423.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23660-w37783.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23660-w37783.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17360-w37209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6816-w37546.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6824-w37696.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31377-w40416.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34013-w37423.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31967-w37426.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6828-w37969.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15279-w45999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34024-w73620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17360-w37209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15279-w45999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6828-w37969.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6816-w37546.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34024-w73620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31967-w37426.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12061-w20933.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31377-w40416.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34017-w37686.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12061-w20933.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13333-w37786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23674-w59240.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12071-w37349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34017-w37686.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15275-w37859.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17378-w37849.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23674-w59240.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15275-w37859.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17378-w37849.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13333-w37786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13631-w123277.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12071-w37349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17349-w123242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15199-w37356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15199-w37356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13318-w36059.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17351-w123248.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19408-w37256.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19408-w37256.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17351-w123248.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13318-w36059.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13631-w123277.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19403-w35139.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17349-w123242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50594-w619014.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19403-w35139.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50585-w619015.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50594-w619014.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50596-w619009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50585-w619015.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89688-w619051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50596-w619009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6822-w37619.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89688-w619051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34006-w37093.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6822-w37619.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17390-w71210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19416-w37803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21523-w37353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13640-w36029.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25712-w37333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34006-w37093.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15197-w37236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9420-w37253.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13640-w36029.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15197-w37236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13323-w37226.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34021-w37943.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34021-w37943.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25712-w37333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19416-w37803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17390-w71210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9420-w37253.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12091-w96879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12091-w96879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13323-w37226.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13338-w37860.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21523-w37353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15264-w37180.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12056-w123250.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23672-w51086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21525-w37626.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6818-w37576.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31981-w37979.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25721-w37643.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6809-w37320.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21525-w37626.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21513-w24489.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31376-w37999.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17353-w123251.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21513-w24489.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13338-w37860.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31981-w37979.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31962-w37210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6809-w37320.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31376-w37999.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12056-w123250.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23672-w51086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17353-w123251.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25721-w37643.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31962-w37210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6818-w37576.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-126384-w619072.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15264-w37180.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31976-w37866.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-126384-w619072.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31366-w37663.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31976-w37866.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6823-w37646.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89658-w619023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13356-w93356.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89659-w619046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25717-w37573.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89660-w619047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89658-w619023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13356-w93356.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89660-w619047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25717-w37573.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89659-w619046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6823-w37646.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31959-w36060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31366-w37663.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25699-w19236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6807-w37036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6807-w37036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12055-w10580.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19415-w37760.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31959-w36060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12055-w10580.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19415-w37760.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15208-w37583.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25699-w19236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31380-w55890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15208-w37583.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29874-w123243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31380-w55890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45296-w619002.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29874-w123243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19404-w37046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45296-w619002.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29876-w14493.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33997-w13369.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13654-w37876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29883-w28850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31348-w37146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15251-w17789.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33997-w13369.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13309-w15306.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29904-w49233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19404-w37046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29883-w28850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29876-w14493.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15251-w17789.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31348-w37146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6833-w49680.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15287-w73623.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15287-w73623.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29904-w49233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13309-w15306.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6833-w49680.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15192-w34876.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13654-w37876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23669-w37983.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19307-m128206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19413-w37569.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15192-w34876.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13629-w101604.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25715-w37419.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25715-w37419.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19413-w37569.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19307-m128206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13629-w101604.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23645-w370055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23669-w37983.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17352-w123249.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9426-w37780.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34011-w37313.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6801-w18290.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17369-w37499.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25732-w37963.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25732-w37963.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23645-w370055.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9432-w40823.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17363-w37323.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9426-w37780.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34012-w37336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17363-w37323.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17352-w123249.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6801-w18290.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13344-w45996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34012-w37336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17357-w370082.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17357-w370082.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17369-w37499.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21540-w90550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34011-w37313.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13344-w45996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21540-w90550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29886-w370038.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9432-w40823.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17377-w37846.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29886-w370038.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12076-w37709.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31979-w37966.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17380-w37856.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25718-w37599.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29903-w45873.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13336-w37853.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34029-w96613.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15204-w37420.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15204-w37420.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29903-w45873.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25720-w37639.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17380-w37856.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25718-w37599.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17377-w37846.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13336-w37853.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12076-w37709.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31979-w37966.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25720-w37639.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51137-m639012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34029-w96613.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31340-w123241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51137-m639012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105596-w619081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31340-w123241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106380-w619070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105596-w619081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85589-w619021.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106380-w619070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23650-w37246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21517-w36009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21517-w36009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23650-w37246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91596-w619058.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85589-w619021.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85596-w619019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91596-w619058.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25706-w37033.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85596-w619019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23656-w37750.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25706-w37033.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15209-w37590.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25734-w37973.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25734-w37973.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31968-w37509.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12069-w37283.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34019-w37779.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34019-w37779.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12069-w37283.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34014-w37549.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23656-w37750.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31968-w37509.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15209-w37590.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6805-w370027.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9416-w37116.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9416-w37116.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34014-w37549.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23683-w96773.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6805-w370027.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17371-w37580.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19414-w37640.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19414-w37640.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17375-w37710.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31975-w37799.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17371-w37580.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31969-w37539.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31975-w37799.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31375-w37996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31969-w37539.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13668-w90549.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23683-w96773.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17375-w37710.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13668-w90549.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17373-w37660.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31375-w37996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12054-w101610.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17373-w37660.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9443-w619000.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-12054-w101610.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128183-w619088.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9443-w619000.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128197-w619089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29902-w37976.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104957-w619077.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23643-w36010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23643-w36010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104957-w619077.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29902-w37976.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128183-w619088.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106955-w619084.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128197-w619089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21816-351520.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106955-w619084.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6898-351146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106232-w619085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106232-w619085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6898-351146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17367-w37459.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21816-351520.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-87229-w619022.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17367-w37459.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-138675-w619073.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-87229-w619022.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106247-w619086.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-138675-w619073.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128182-w619087.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106247-w619086.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91595-w619053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128182-w619087.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1561-19381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91595-w619053.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26902-19341.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1561-19381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-30509-8418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26902-19341.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33408-96855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-30509-8418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21693-19349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33408-96855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-18814-96847.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21693-19349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1226-13620.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-18814-96847.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4304-351743.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1226-13620.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-727-13688.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4304-351743.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32163-19382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-727-13688.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-1702-19386.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19596-19325.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19596-19325.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32163-19382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21817-351656.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-1702-19386.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6957-351756.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21817-351656.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33407-96618.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6957-351756.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4846-m39865.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33407-96618.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15575-351683.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4846-m39865.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2932-352146.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23702-123245.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25966-351556.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-746-13690.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23702-123245.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25966-351556.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-746-13690.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2932-352146.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4289-33149.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15575-351683.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4801-m390007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4289-33149.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21469-m39855.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4801-m390007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21429-m390001.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21469-m39855.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-11823-5382.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21429-m390001.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9643-3600.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-11823-5382.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48407-11303.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9643-3600.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25949-33150.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48407-11303.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27905-46349.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25949-33150.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19345-m39578.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27905-46349.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34848-11304.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19345-m39578.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4303-351662.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34848-11304.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17831-46350.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4303-351662.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4881-3644.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17831-46350.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21814-351145.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4881-3644.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21832-35812.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9359-m39655.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19790-39070.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21814-351145.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24069-46348.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21832-35812.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-24070-46365.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19790-39070.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9359-m39655.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24070-46365.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-32278-35629.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-24069-46348.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9641-3577.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-32278-35629.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15576-351732.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27127-33151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27127-33151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9641-3577.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2111-3609.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15576-351732.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54024-82571.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2111-3609.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2926-351588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54024-82571.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27469-351545.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7429-3633.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7429-3633.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27469-351545.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17662-33184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2926-351588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19738-35492.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7413-35627.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25969-351952.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27251-35108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27251-35108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19738-35492.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2119-3636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9642-35895.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7423-3608.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25969-351952.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7413-35627.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17662-33184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2929-351768.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7423-3608.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7419-35886.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2119-3636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9642-35895.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2929-351768.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7404-351144.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7419-35886.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-22156-5381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7404-351144.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17309-m39805.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-22156-5381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23595-m39592.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17309-m39805.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26317-5355.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23595-m39592.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13556-m390186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26317-5355.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21438-m390301.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13556-m390186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4802-m390023.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21438-m390301.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14830-m390299.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4815-m390286.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4815-m390286.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4802-m390023.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15138-m39890.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14830-m390299.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4817-m390292.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15138-m39890.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21440-m390357.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4817-m390292.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9341-m390375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21440-m390357.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19314-m390032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23568-m390132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23568-m390132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19314-m390032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13224-m390141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9341-m390375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9332-m390175.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9328-m12579.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19324-m390233.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4814-m390274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9328-m12579.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23577-m390296.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23577-m390296.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19324-m390233.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4814-m390274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9332-m390175.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105089-m631037.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13224-m390141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13553-m390110.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105089-m631037.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27470-351711.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13553-m390110.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9339-m390352.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27470-351711.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29808-m390409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31272-m390384.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31272-m390384.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29808-m390409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15120-m390402.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19315-m390050.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19315-m390050.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25656-m39879.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25656-m39879.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9339-m390352.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33944-m390353.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4845-m39850.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80153-m630504.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4803-m390085.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14825-m390123.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17308-m39800.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21434-m390236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15120-m390402.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4845-m39850.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23584-m390615.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17308-m39800.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21434-m390236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23584-m390615.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33944-m390353.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4803-m390085.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80153-m630504.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6951-351217.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14825-m390123.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14832-m390333.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6951-351217.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23574-m390254.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14832-m390333.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31261-m390177.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23574-m390254.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15107-m390143.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21432-m390206.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21432-m390206.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31261-m390177.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17288-m390148.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15107-m390143.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13227-m390276.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17288-m390148.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13569-m390513.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14829-m390289.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15116-m390319.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13227-m390276.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14829-m390289.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13569-m390513.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17682-351924.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15116-m390319.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17683-351951.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17682-351924.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31274-m390425.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17683-351951.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19015-cm39803.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31274-m390425.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-3180-42030.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19015-cm39803.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17285-m390006.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-3180-42030.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6736-m390316.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17285-m390006.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13566-m390401.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9343-m390503.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21485-m630184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6736-m390316.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-2178-42035.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13566-m390401.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9343-m390503.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-2178-42035.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86096-924-786.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21485-m630184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4849-m39983.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86096-924-786.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27403-42081.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4849-m39983.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15113-m390246.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27403-42081.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19322-m390205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15113-m390246.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23598-m39799.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19322-m390205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17292-m390282.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23598-m39799.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25652-m39773.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17292-m390282.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31880-m390209.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25652-m39773.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68679-m630638.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31880-m390209.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68663-m630639.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75352-905-931.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67386-h621895.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68679-m630638.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67479-h621894.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68663-m630639.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31266-m390220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67479-h621894.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4828-m390591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67386-h621895.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33937-m390215.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31266-m390220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33938-m390219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4828-m390591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33933-m390130.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33937-m390215.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19316-m390099.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33933-m390130.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29803-m390326.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33938-m390219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17287-m390126.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19316-m390099.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13231-m390331.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17287-m390126.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13568-m390448.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29803-m390326.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86832-m639047.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13231-m390331.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96003-924-908.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13568-m390448.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-86473-924-791.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86832-m639047.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13222-m390026.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96003-924-908.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21447-m390550.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-86473-924-791.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80080-m630378.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13222-m390026.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6772-m630272.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21447-m390550.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33964-m630048.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31886-m390467.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23603-m630054.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50135-m630542.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25663-m630019.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33964-m630048.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31310-m630194.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25663-m630019.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50135-m630542.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23603-m630054.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31886-m390467.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31310-m630194.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-80890-m630236.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80080-m630378.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34064-m630409.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6772-m630272.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21489-m630385.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4824-m390418.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13609-m630345.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-80890-m630236.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51816-m630636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65877-m630642.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15147-m630051.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-48812-m630494.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4856-m630181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29846-m630360.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9374-m630196.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29832-m630119.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9377-m630238.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15157-m630242.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31298-m39957.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13272-m630225.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4824-m390418.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23610-m630182.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29846-m630360.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49394-m630025.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15157-m630242.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21489-m630385.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13272-m630225.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13609-m630345.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-48812-m630494.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15147-m630051.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29832-m630119.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51816-m630636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65877-m630642.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34064-m630409.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49394-m630025.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9374-m630196.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23610-m630182.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9377-m630238.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65295-m630591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31298-m39957.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-104030-m630990.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4856-m630181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13265-m630056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65295-m630591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23613-m630381.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-104030-m630990.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-35187-m630438.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13265-m630056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14872-m630168.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23613-m630381.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45202-m630456.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4855-m630105.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4855-m630105.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19369-m630338.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19369-m630338.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4863-m630339.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-44823-m630457.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14872-m630168.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4863-m630339.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13274-m630241.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34072-m630427.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-44823-m630457.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13274-m630241.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45202-m630456.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-65860-m630641.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-35187-m630438.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50644-m630527.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-65860-m630641.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9366-m39970.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34072-m630427.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15108-m390162.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50644-m630527.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68651-m630566.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15108-m390162.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29789-m390024.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9366-m39970.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52155-m630610.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-75368-905-932.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46969-m630200.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68651-m630566.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13267-m630117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106032-989-009.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78902-m630798.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29789-m390024.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45411-m630201.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78902-m630798.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106032-989-009.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13267-m630117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33946-m390406.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46969-m630200.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15141-m39961.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45411-m630201.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97715-924-789.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33946-m390406.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51495-m630635.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52155-m630610.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33970-m630187.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15141-m39961.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13600-m630186.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97715-924-789.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34608-m630429.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4797-m134440.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15139-m39944.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51495-m630635.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13264-m630053.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34608-m630429.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4797-m134440.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15139-m39944.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46918-m630147.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33970-m630187.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-92911-m630852.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4820-m390367.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4820-m390367.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-92911-m630852.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21481-m630133.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51491-m630555.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-67418-m630697.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-35184-m630383.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-35184-m630383.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21481-m630133.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51491-m630555.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-67418-m630697.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9371-m630032.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68598-m630695.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68598-m630695.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9371-m630032.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13590-m630010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105398-989-016.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21431-m390089.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13590-m630010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105398-989-016.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21431-m390089.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53235-m630679.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51143-m630573.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51143-m630573.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53235-m630679.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17316-m630166.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34580-m630388.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34580-m630388.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23962-42046.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23962-42046.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17316-m630166.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-79934-m630761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31924-m630270.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31924-m630270.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14879-m630229.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14879-m630229.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-79934-m630761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29830-m630097.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25651-m39761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25651-m39761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29830-m630097.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34644-m630450.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9375-m630219.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17319-m630220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105404-989-003.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9375-m630219.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34644-m630450.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25668-m630163.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17319-m630220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105404-989-003.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25668-m630163.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75352-905-931.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34581-m630389.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34581-m630389.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14862-m39996.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23567-m390117.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103575-989-036.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14862-m39996.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23567-m390117.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103575-989-036.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31316-m83579.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31316-m83579.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68591-m630570.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68591-m630570.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45257-m630533.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45257-m630533.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33943-m390338.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33943-m390338.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25643-m390509.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25643-m390509.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17315-m630079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17315-m630079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19348-m39649.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19348-m39649.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68541-m630741.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68541-m630741.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68563-m630740.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68563-m630740.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31314-m630396.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31314-m630396.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50612-m630572.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50612-m630572.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6758-m39861.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6758-m39861.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105405-989-007.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105405-989-007.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6766-m630189.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6766-m630189.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6767-m630190.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6767-m630190.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-84743-m630762.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-84743-m630762.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45252-m630534.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45252-m630534.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50633-m630540.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50633-m630540.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46736-m630060.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-46736-m630060.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23608-m630111.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23608-m630111.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-141312-m630960.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-141312-m630960.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51485-m630515.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51485-m630515.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17291-m390184.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17291-m390184.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31311-m630243.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31311-m630243.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9724-42098.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9724-42098.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31883-m390279.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31883-m390279.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15127-m39593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15127-m39593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49860-m630514.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49860-m630514.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-91258-m630860.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-91258-m630860.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31915-m630049.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31915-m630049.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31928-m630332.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31928-m630332.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13261-m630017.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13261-m630017.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4842-m39636.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4842-m39636.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-21490-m630398.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-21490-m630398.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25639-m390336.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25639-m390336.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68680-m630693.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68680-m630693.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15162-m630367.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-75368-905-932.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23092-b10675.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15162-m630367.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25164-b16932.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23092-b10675.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68673-m630764.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25164-b16932.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-34206-m630439.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68673-m630764.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14864-m56193.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14864-m56193.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-8906-b5994.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-34206-m630439.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54281-m630663.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-8906-b5994.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51512-m630626.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54281-m630663.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9776-42040.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51512-m630626.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-4844-m39791.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9776-42040.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49410-m630486.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-4844-m39791.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-78232-m630839.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49410-m630486.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53753-m630622.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-78232-m630839.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73090-m630556.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53753-m630622.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17301-m39476.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73090-m630556.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13285-m71265.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17301-m39476.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-26047-42106.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13285-m71265.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53750-m630517.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-26047-42106.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31884-m390337.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31884-m390337.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51499-m630625.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53750-m630517.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53171-m630692.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51499-m630625.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9380-m630274.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53171-m630692.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-15122-m39434.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9380-m630274.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29840-m630281.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-15122-m39434.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51498-m630624.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29840-m630281.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-68502-m630507.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51498-m630624.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45293-m630451.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-68502-m630507.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14881-m630283.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45293-m630451.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-14882-m630284.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14881-m630283.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-85605-603-642.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-14882-m630284.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-19367-m630312.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-85605-603-642.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50648-m630509.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-19367-m630312.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51515-m630623.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50648-m630509.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-9384-m630334.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51515-m630623.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25624-m101266.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-9384-m630334.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-52177-m630505.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25624-m101266.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-73484-m630595.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-52177-m630505.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-31294-m39767.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-73484-m630595.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144409-610-6761.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144409-610-6761.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-53205-m630666.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-31294-m39767.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7483-42041.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-53205-m630666.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-7030-42108.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7483-42041.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29734-hw2232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-7030-42108.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27618-42079.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29734-hw2232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-51130-m630628.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27618-42079.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-144408-610-676.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-51130-m630628.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13122-h86586.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-144408-610-676.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-50277-924-220.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-13122-h86586.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103467-610-6181.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-50277-924-220.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139056-610-7851.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103467-610-6181.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-23508-hw2230.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139056-610-7851.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-140742-47821.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-23508-hw2230.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129097-47824.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-132534-47830.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128264-47823.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129097-47824.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-132534-47830.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-140742-47821.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-129842-47822.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-129842-47822.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-105605-924-685.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128264-47823.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139057-610-785.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-105605-924-685.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-17521-13867.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139057-610-785.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107043-610-5941.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-17521-13867.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103480-610-618.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103480-610-618.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107037-610-5911.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107043-610-5941.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107035-610-5901.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107037-610-5911.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103479-610-6151.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107035-610-5901.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107031-610-5871.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103479-610-6151.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107105-610-5881.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107031-610-5871.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102688-610-6131.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107105-610-5881.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102681-610-6141.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102688-610-6131.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107041-610-5931.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102681-610-6141.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96550-924-658.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107041-610-5931.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107042-610-594.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96550-924-658.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107030-610-587.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107042-610-594.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-103472-610-615.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107030-610-587.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107036-610-591.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107036-610-591.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107104-610-588.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-103472-610-615.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102687-610-613.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107104-610-588.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-107040-610-593.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102687-610-613.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102680-610-614.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-107040-610-593.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-33721-h38354.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102680-610-614.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-29565-h38132.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-33721-h38354.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-6638-hw1456-10.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-29565-h38132.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-25556-hw1456.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6638-hw1456-10.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-139588-947-012.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-25556-hw1456.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-81090-924-375.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-139588-947-012.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-131929-610-04995.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-81090-924-375.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-132343-610-042210.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-131929-610-04995.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-137413-924-234.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-132343-610-042210.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-27765-45490.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-137413-924-234.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-10953-963-056.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-27765-45490.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100730-963-056d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100730-963-056d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-45360-924-212.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-10953-963-056.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-20439-700-368.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-45360-924-212.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-97759-924-659.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-20439-700-368.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-89143-924-656.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-97759-924-659.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-106933-947-010.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-106933-947-010.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-49987-924-218.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-89143-924-656.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-128113-924-694.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-49987-924-218.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-96524-924-661.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-128113-924-694.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100884-963-205d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-96524-924-661.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-54736-963-205.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-54736-963-205.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-153923-926-371.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-102749-924-684.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-134763-924-237.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-134763-924-237.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-102749-924-684.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-72583-963-232.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-100954-963-232d.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-12081-w610055.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13351-w610138.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-100884-963-205d.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-46918-m630147.aspx?origin=keyword</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,17 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/p-6824-w37696.aspx?origin=keyword</t>
+          <t>https://www.dormanproducts.com/p-13264-m630053.aspx?origin=keyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/p-13600-m630186.aspx?origin=keyword</t>
         </is>
       </c>
     </row>

--- a/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
+++ b/03.crawler/02.Dorman/file/2.url/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29480" windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
